--- a/output/xlsx/RF004 - Visualizar Painel do Desempenho--GTP-.xlsx
+++ b/output/xlsx/RF004 - Visualizar Painel do Desempenho--GTP-.xlsx
@@ -101,7 +101,7 @@
     <t>Usuario Nao-Autenticado escolhe no campo 'Periodo Avaliativo' o ano correspondente</t>
   </si>
   <si>
-    <t>SYSTEM exibe na pagina uma tabela contendo as informacoes (basicamente listagem das unidades) do estado de realizacao do PGPD, nas fases:                    Responsavel (Unidade), Competencias, Avaliacoes.</t>
+    <t>SYSTEM exibe na pagina uma tabela contendo as informacoes do estado de realizacao do PGPD naquele Periodo Avaliativo:                    - Grafico com o resumo da situacao das competencias (para avaliar, avaliadas, para capacitar e capacitadas)                   - Grafico com o resumo da situacao das unidades (sem/com competencias mapeadas, sem/com avaliacoes pendentes e sem/com capacitacoes planejadas)                    - Tabela com: Responsavel (Unidade), Competencias, Avaliacoes.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>

--- a/output/xlsx/RF004 - Visualizar Painel do Desempenho--GTP-.xlsx
+++ b/output/xlsx/RF004 - Visualizar Painel do Desempenho--GTP-.xlsx
@@ -101,7 +101,7 @@
     <t>Usuario Nao-Autenticado escolhe no campo 'Periodo Avaliativo' o ano correspondente</t>
   </si>
   <si>
-    <t>SYSTEM exibe na pagina uma tabela contendo as informacoes do estado de realizacao do PGPD naquele Periodo Avaliativo:                    - Grafico com o resumo da situacao das competencias (para avaliar, avaliadas, para capacitar e capacitadas)                   - Grafico com o resumo da situacao das unidades (sem/com competencias mapeadas, sem/com avaliacoes pendentes e sem/com capacitacoes planejadas)                    - Tabela com: Responsavel (Unidade), Competencias, Avaliacoes.</t>
+    <t>SYSTEM exibe na pagina as informacoes sobre o estado de realizacao do PGPD naquele Periodo Avaliativo:                    - Grafico com o resumo da situacao das competencias (para avaliar, avaliadas, para capacitar e capacitadas)                   - Grafico com o resumo da situacao das unidades (sem/com competencias mapeadas, sem/com avaliacoes pendentes e sem/com capacitacoes planejadas)                    - Tabela com: Responsavel (Unidade), Competencias, Avaliacoes.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
